--- a/Data/BNZ_Metadata_Beta_Vegetation.xlsx
+++ b/Data/BNZ_Metadata_Beta_Vegetation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danci\OneDrive\Desktop\beta data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BC2FE-964D-4E70-B96C-5D258FC0E9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A19DF-347C-4111-A45B-454F3A1B53D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1240">
   <si>
     <t>Name (First)</t>
   </si>
@@ -3414,18 +3414,12 @@
     <t>Annually during peak productivity in summer,</t>
   </si>
   <si>
-    <t>William Cox, Catherine Dieleman, Danielle Rupp</t>
-  </si>
-  <si>
     <t>William Cox</t>
   </si>
   <si>
     <t>Data file from two APEX sites within Bonanza Creek Experimental Forest; Southwest of Fairbanks, Interior Alaska, North America</t>
   </si>
   <si>
-    <t>Annually</t>
-  </si>
-  <si>
     <t>2, 15</t>
   </si>
   <si>
@@ -3810,10 +3804,52 @@
     <t>https://ses.uoguelph.ca/</t>
   </si>
   <si>
-    <t>APEX beta vegetation surveys from both the permafrost plateau area and the active thaw margin, from 2018 to present.</t>
-  </si>
-  <si>
     <t>This dataset contains the vegetation survey data for the bog and permafrost plateau sites at the Alaskan Peatland Experiment (APEX) from 2018 to 2024. Each year of surveys is recorded in a separate subsheet.</t>
+  </si>
+  <si>
+    <t>July 25 2017</t>
+  </si>
+  <si>
+    <t>Aug 8 2024</t>
+  </si>
+  <si>
+    <t>For any specimens that could not be identified in the field, voucher specimens were collected, dissected (if necessary), and keyed out in the lab.</t>
+  </si>
+  <si>
+    <t>William Cox, Catherine Dieleman</t>
+  </si>
+  <si>
+    <t>Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>Beta-Vegetation-Cover-Data</t>
+  </si>
+  <si>
+    <t>This dataset contains the annual point intercept vegetation surveys from the APEX beta site from 2017 on.</t>
+  </si>
+  <si>
+    <t>This dataset contains the annual percent cover vegetation surveys from the APEX beta site from 2017 to 2019</t>
+  </si>
+  <si>
+    <t>BetaVegCombo</t>
+  </si>
+  <si>
+    <t>This dataset contains reformatted percent cover vegetation survey data from the APEX beta site from 2017 to 2019 for the purposes of creating dissimilarity matrices and ordination plots.</t>
+  </si>
+  <si>
+    <t>6W</t>
+  </si>
+  <si>
+    <t>active layer thickness, vegetation cover, greenhouse gas flux, soil temp, soil moisture, porewater sampling</t>
+  </si>
+  <si>
+    <t>permafrost | peatland | black spruce | bogs | thermokarst</t>
+  </si>
+  <si>
+    <t>APEX beta vegetation surveys from both the permafrost plateau area and the active thaw margin, from 2017 to present.</t>
   </si>
 </sst>
 </file>
@@ -5278,7 +5314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -5744,8 +5780,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5804,7 +5840,7 @@
         <v>281</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="147.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -5821,7 +5857,7 @@
         <v>282</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,7 +5874,7 @@
         <v>283</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5855,7 +5891,7 @@
         <v>244</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>244</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -5888,8 +5924,8 @@
       <c r="D9" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="E9" s="175">
-        <v>43290</v>
+      <c r="E9" s="175" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -5905,8 +5941,8 @@
       <c r="D10" s="22" t="s">
         <v>1057</v>
       </c>
-      <c r="E10" s="175">
-        <v>45512</v>
+      <c r="E10" s="175" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -5974,7 +6010,7 @@
         <v>1024</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>1094</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -5991,7 +6027,7 @@
         <v>1024</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -6089,7 +6125,7 @@
         <v>346</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -6105,7 +6141,9 @@
       <c r="D22" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="182" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
@@ -6120,7 +6158,9 @@
       <c r="D23" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="181" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
@@ -6135,7 +6175,9 @@
       <c r="D24" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="43" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
@@ -6150,7 +6192,9 @@
       <c r="D25" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="25" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
@@ -6165,7 +6209,9 @@
       <c r="D26" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="43" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
@@ -6210,8 +6256,8 @@
       <c r="D29" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>1097</v>
+      <c r="E29" s="43">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -6228,7 +6274,7 @@
         <v>244</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>1094</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -6275,7 +6321,7 @@
         <v>341</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -6292,7 +6338,7 @@
         <v>342</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -6326,7 +6372,7 @@
         <v>353</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -6609,7 +6655,7 @@
         <v>1058</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C11" s="79" t="s">
         <v>1031</v>
@@ -6633,7 +6679,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="79" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>1035</v>
@@ -6656,7 +6702,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="79" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C13" s="79" t="s">
         <v>1039</v>
@@ -6832,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7296,33 +7342,69 @@
       <c r="B17" s="120" t="s">
         <v>1058</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="C17" s="127" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F17" s="127" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G17" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="127">
+        <v>16</v>
+      </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
       <c r="R17" s="100"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
+    <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="79" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F18" s="122" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G18" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="121">
+        <v>36</v>
+      </c>
       <c r="I18" s="121"/>
       <c r="J18" s="121"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
+    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C19" s="79" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F19" s="122" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="121">
+        <v>63</v>
+      </c>
       <c r="I19" s="121"/>
       <c r="J19" s="121"/>
     </row>
@@ -7558,8 +7640,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7885,16 +7967,16 @@
         <v>1058</v>
       </c>
       <c r="C9" s="127" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E9" s="127" t="s">
         <v>1137</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="F9" s="127" t="s">
         <v>1138</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>1140</v>
       </c>
       <c r="G9" s="127"/>
       <c r="H9" s="127" t="s">
@@ -7914,16 +7996,16 @@
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C10" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D10" s="121" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F10" s="121" t="s">
         <v>1141</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F10" s="121" t="s">
-        <v>1143</v>
       </c>
       <c r="G10" s="121"/>
       <c r="H10" s="121" t="s">
@@ -7943,13 +8025,13 @@
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F11" s="121" t="s">
         <v>186</v>
@@ -7962,7 +8044,7 @@
         <v>165</v>
       </c>
       <c r="J11" s="121" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K11" s="121"/>
       <c r="L11" s="121"/>
@@ -7974,19 +8056,19 @@
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F12" s="121" t="s">
         <v>187</v>
       </c>
       <c r="G12" s="121" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H12" s="121" t="s">
         <v>170</v>
@@ -8005,16 +8087,16 @@
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D13" s="121" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>1150</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>1152</v>
       </c>
       <c r="G13" s="121"/>
       <c r="H13" s="121" t="s">
@@ -8034,16 +8116,16 @@
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D14" s="121" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F14" s="121" t="s">
         <v>1153</v>
-      </c>
-      <c r="E14" s="121" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F14" s="121" t="s">
-        <v>1155</v>
       </c>
       <c r="G14" s="121"/>
       <c r="H14" s="121" t="s">
@@ -8063,16 +8145,16 @@
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D15" s="121" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F15" s="121" t="s">
         <v>1156</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F15" s="121" t="s">
-        <v>1158</v>
       </c>
       <c r="G15" s="121"/>
       <c r="H15" s="121" t="s">
@@ -8092,16 +8174,16 @@
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D16" s="121" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F16" s="121" t="s">
         <v>1159</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>1161</v>
       </c>
       <c r="G16" s="121"/>
       <c r="H16" s="121" t="s">
@@ -8111,7 +8193,7 @@
         <v>165</v>
       </c>
       <c r="J16" s="121" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
@@ -8123,16 +8205,16 @@
     </row>
     <row r="17" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D17" s="121" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F17" s="121" t="s">
         <v>1163</v>
-      </c>
-      <c r="E17" s="121" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F17" s="121" t="s">
-        <v>1165</v>
       </c>
       <c r="G17" s="121"/>
       <c r="H17" s="121" t="s">
@@ -8152,16 +8234,16 @@
     </row>
     <row r="18" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D18" s="121" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F18" s="121" t="s">
         <v>1166</v>
-      </c>
-      <c r="E18" s="121" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F18" s="121" t="s">
-        <v>1168</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="121" t="s">
@@ -8181,16 +8263,16 @@
     </row>
     <row r="19" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D19" s="121" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F19" s="121" t="s">
         <v>1169</v>
-      </c>
-      <c r="E19" s="121" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F19" s="121" t="s">
-        <v>1171</v>
       </c>
       <c r="G19" s="121"/>
       <c r="H19" s="121" t="s">
@@ -8210,16 +8292,16 @@
     </row>
     <row r="20" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D20" s="121" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F20" s="121" t="s">
         <v>1172</v>
-      </c>
-      <c r="E20" s="121" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F20" s="121" t="s">
-        <v>1174</v>
       </c>
       <c r="G20" s="121"/>
       <c r="H20" s="121" t="s">
@@ -8239,16 +8321,16 @@
     </row>
     <row r="21" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D21" s="121" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F21" s="121" t="s">
         <v>1175</v>
-      </c>
-      <c r="E21" s="121" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F21" s="121" t="s">
-        <v>1177</v>
       </c>
       <c r="G21" s="121"/>
       <c r="H21" s="121" t="s">
@@ -8268,16 +8350,16 @@
     </row>
     <row r="22" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D22" s="121" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E22" s="121" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F22" s="121" t="s">
         <v>1178</v>
-      </c>
-      <c r="E22" s="121" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F22" s="121" t="s">
-        <v>1180</v>
       </c>
       <c r="G22" s="121"/>
       <c r="H22" s="121" t="s">
@@ -8297,16 +8379,16 @@
     </row>
     <row r="23" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D23" s="121" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E23" s="121" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F23" s="121" t="s">
         <v>1181</v>
-      </c>
-      <c r="E23" s="121" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F23" s="121" t="s">
-        <v>1183</v>
       </c>
       <c r="G23" s="121"/>
       <c r="H23" s="121" t="s">
@@ -8326,16 +8408,16 @@
     </row>
     <row r="24" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="121" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D24" s="121" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E24" s="121" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F24" s="121" t="s">
         <v>1184</v>
-      </c>
-      <c r="E24" s="121" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F24" s="121" t="s">
-        <v>1186</v>
       </c>
       <c r="G24" s="121"/>
       <c r="H24" s="121" t="s">
@@ -8593,8 +8675,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8641,10 +8723,10 @@
         <v>46</v>
       </c>
       <c r="F3" s="140" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G3" s="140" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -8661,13 +8743,13 @@
         <v>996</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -8684,13 +8766,13 @@
         <v>997</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8707,13 +8789,13 @@
         <v>998</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8745,7 +8827,7 @@
       </c>
       <c r="D8" s="143"/>
       <c r="E8" s="43" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -8764,13 +8846,13 @@
         <v>999</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -8787,13 +8869,13 @@
         <v>1000</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8810,13 +8892,13 @@
         <v>248</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -8833,13 +8915,13 @@
         <v>249</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8862,7 +8944,7 @@
         <v>80309</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -8885,7 +8967,7 @@
         <v>250</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -8925,13 +9007,13 @@
         <v>1001</v>
       </c>
       <c r="E16" s="174" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F16" s="174" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G16" s="174" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -8963,7 +9045,7 @@
         <v>1002</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -9030,10 +9112,10 @@
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="174" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -9050,13 +9132,13 @@
         <v>1005</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -9073,13 +9155,13 @@
         <v>1006</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9096,13 +9178,13 @@
         <v>1007</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9119,11 +9201,11 @@
         <v>1008</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="43" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -9140,7 +9222,7 @@
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -9157,13 +9239,13 @@
         <v>1009</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G28" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -9180,13 +9262,13 @@
         <v>1010</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G29" s="43" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -9203,13 +9285,13 @@
         <v>1011</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -9226,13 +9308,13 @@
         <v>1052</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -9249,7 +9331,7 @@
         <v>1012</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
@@ -9268,7 +9350,7 @@
         <v>1015</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
@@ -9308,7 +9390,7 @@
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="43" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -9359,7 +9441,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9403,7 +9485,7 @@
         <v>247</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39" thickTop="1" x14ac:dyDescent="0.2">
@@ -9420,10 +9502,10 @@
         <v>264</v>
       </c>
       <c r="E4" s="153" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F4" s="153" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -9440,10 +9522,10 @@
         <v>272</v>
       </c>
       <c r="E5" s="154" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F5" s="154" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -9520,10 +9602,10 @@
         <v>280</v>
       </c>
       <c r="E9" s="154" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F9" s="154" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
@@ -9540,10 +9622,10 @@
         <v>266</v>
       </c>
       <c r="E10" s="180" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F10" s="154" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -9560,10 +9642,10 @@
         <v>265</v>
       </c>
       <c r="E11" s="176" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F11" s="177" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -9580,10 +9662,10 @@
         <v>309</v>
       </c>
       <c r="E12" s="176" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F12" s="177" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -9600,10 +9682,10 @@
         <v>271</v>
       </c>
       <c r="E13" s="178" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F13" s="179" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -9620,10 +9702,10 @@
         <v>275</v>
       </c>
       <c r="E14" s="154" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F14" s="154" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -9656,10 +9738,10 @@
         <v>277</v>
       </c>
       <c r="E16" s="154" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F16" s="154" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -9676,10 +9758,10 @@
         <v>35</v>
       </c>
       <c r="E17" s="154" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F17" s="154" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -9712,10 +9794,10 @@
         <v>274</v>
       </c>
       <c r="E19" s="154" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F19" s="154" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -9748,10 +9830,10 @@
         <v>273</v>
       </c>
       <c r="E21" s="154" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F21" s="154" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -9768,10 +9850,10 @@
         <v>64.766400000000004</v>
       </c>
       <c r="E22" s="25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>1216</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -9788,10 +9870,10 @@
         <v>-148.29349999999999</v>
       </c>
       <c r="E23" s="181" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F23" s="182" t="s">
         <v>1217</v>
-      </c>
-      <c r="F23" s="182" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -9807,8 +9889,12 @@
       <c r="D24" s="14">
         <v>7182855.5</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
+      <c r="E24" s="154">
+        <v>7175247.0999999996</v>
+      </c>
+      <c r="F24" s="154">
+        <v>7175256.1200000001</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="116" t="s">
@@ -9823,8 +9909,12 @@
       <c r="D25" s="14">
         <v>438471.3</v>
       </c>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
+      <c r="E25" s="154">
+        <v>437026.95</v>
+      </c>
+      <c r="F25" s="154">
+        <v>437006.29</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="116" t="s">
@@ -9839,8 +9929,12 @@
       <c r="D26" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
+      <c r="E26" s="154" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F26" s="154" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="116" t="s">
@@ -9856,10 +9950,10 @@
         <v>276</v>
       </c>
       <c r="E27" s="154" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F27" s="154" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -9876,13 +9970,13 @@
         <v>141</v>
       </c>
       <c r="E28" s="154" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F28" s="154" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="116" t="s">
         <v>300</v>
       </c>
@@ -9895,8 +9989,12 @@
       <c r="D29" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
+      <c r="E29" s="154" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F29" s="154" t="s">
+        <v>1237</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
@@ -9963,8 +10061,12 @@
       <c r="D33" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
+      <c r="E33" s="154" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F33" s="154" t="s">
+        <v>1238</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="116" t="s">
@@ -10044,10 +10146,10 @@
         <v>269</v>
       </c>
       <c r="E38" s="154" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F38" s="154" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -10395,7 +10497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A632"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0"/>
+    <sheetView topLeftCell="A552" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
